--- a/biology/Médecine/Mihály_Lenhossék/Mihály_Lenhossék.xlsx
+++ b/biology/Médecine/Mihály_Lenhossék/Mihály_Lenhossék.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mih%C3%A1ly_Lenhoss%C3%A9k</t>
+          <t>Mihály_Lenhossék</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mihály Lenhossék (parfois désigné sous le nom de Michael von Lenhossék) (1863-1937) est un anatomiste et histologiste hongrois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mih%C3%A1ly_Lenhoss%C3%A9k</t>
+          <t>Mihály_Lenhossék</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de József Lenhossék (hu) (1818-1888), professeur d'anatomie à Kolozsvár puis à Budapest, et l'oncle du prix Nobel Albert Szent-Györgyi. Son grand-père Mihály Ignác Lenhossék (1773-1840) avait occupé les chaires d'anatomie générale dans les Universités de Budapest et de Vienne.
 Docteur en médecine en 1886, il travaille dans l'institut d'anatomie de son père à Budapest. Il est ensuite prosecteur à l'Université de Bâle en 1889, puis à celle de Wurtzbourg (1892-1895). Professeur associé d'anatomie à l'Université de Tübingen, il est professeur d'anatomie à l'Université de Budapest à partir de 1900.
-Il est largement connu pour ses recherches en neuroanatomie : on lui doit notamment en 1893 le terme « astrocyte » pour désigner des cellules du système nerveux central en forme d'étoiles[1]. 
+Il est largement connu pour ses recherches en neuroanatomie : on lui doit notamment en 1893 le terme « astrocyte » pour désigner des cellules du système nerveux central en forme d'étoiles. 
 Il fut éditeur en chef de la revue médicale hongroise Orvosi Hetilap (en) de 1905 à 1922. Il reçut le prix de la Couronne Corvin en 1930.
 </t>
         </is>
